--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE9CB4-12B2-4B41-8F04-71AFCDF4D3ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322206FF-EDA4-EA40-9745-5B19407B2D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14140" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14140" activeTab="2" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -215,6 +217,30 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>medial condyle of femur</t>
+  </si>
+  <si>
+    <t>greater trochanter</t>
+  </si>
+  <si>
+    <t>head of femur</t>
   </si>
 </sst>
 </file>
@@ -262,11 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -918,6 +945,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BC0F9C-810D-FD4C-B797-65D56A8CDBF1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E96952-7B1C-6B49-A60C-5554849C6390}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects medial condyle of femur and greater trochanter</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects medial condyle of femur and head of femur</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322206FF-EDA4-EA40-9745-5B19407B2D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C863BD-BEE1-284B-8F66-C35AC3267BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14140" activeTab="2" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
     <sheet name="axis" sheetId="3" r:id="rId2"/>
     <sheet name="AB" sheetId="4" r:id="rId3"/>
-    <sheet name="structures" sheetId="2" r:id="rId4"/>
+    <sheet name="circumferences" sheetId="5" r:id="rId4"/>
+    <sheet name="structures" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -241,6 +242,54 @@
   </si>
   <si>
     <t>head of femur</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>medial side of' some 'femur'</t>
+  </si>
+  <si>
+    <t>femur medial length</t>
+  </si>
+  <si>
+    <t>diaphysis of femur</t>
+  </si>
+  <si>
+    <t>femur</t>
+  </si>
+  <si>
+    <t>proximal epiphysis of femur</t>
+  </si>
+  <si>
+    <t>distal epiphysis of femur</t>
+  </si>
+  <si>
+    <t>lateral condyle of femur</t>
+  </si>
+  <si>
+    <t>medialmost part of' some 'lesser trochanter'</t>
+  </si>
+  <si>
+    <t>lateralmost part of' some 'greater trochanter'</t>
+  </si>
+  <si>
+    <t>circumference</t>
   </si>
 </sst>
 </file>
@@ -288,12 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,18 +658,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,12 +697,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -661,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -671,8 +723,14 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -686,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -697,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -710,8 +768,11 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -731,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -748,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -768,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -805,7 +866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -825,119 +886,100 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,22 +988,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BC0F9C-810D-FD4C-B797-65D56A8CDBF1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E96952-7B1C-6B49-A60C-5554849C6390}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,12 +1192,60 @@
         <v>line that connects medial condyle of femur and head of femur</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B236827A-831D-C444-B12F-F138F0F72647}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C863BD-BEE1-284B-8F66-C35AC3267BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79273C04-636F-7D40-8D3C-5C54B3B3ED18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -169,18 +169,9 @@
     <t>M1 femur; femur GL; maximal length</t>
   </si>
   <si>
-    <t>femur GL; femur M2</t>
-  </si>
-  <si>
     <t>femur circumference</t>
   </si>
   <si>
-    <t>Femur greatest depth distal</t>
-  </si>
-  <si>
-    <t>Femur greatest depth proximal</t>
-  </si>
-  <si>
     <t>Femur BTr, breadth of the trochanter tertius</t>
   </si>
   <si>
@@ -290,6 +281,60 @@
   </si>
   <si>
     <t>circumference</t>
+  </si>
+  <si>
+    <t>trochlea of femur</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>A trochlea on the distal end of a femur.</t>
+  </si>
+  <si>
+    <t>trochlea and ('part of' some femur)</t>
+  </si>
+  <si>
+    <t>in oba</t>
+  </si>
+  <si>
+    <t>femur M2</t>
   </si>
 </sst>
 </file>
@@ -337,13 +382,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,8 +749,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -717,6 +769,9 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
@@ -724,13 +779,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -749,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -760,10 +818,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -776,6 +837,9 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
@@ -783,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -796,6 +860,9 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
@@ -803,7 +870,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -813,6 +880,9 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
@@ -820,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -833,6 +903,9 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -840,7 +913,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>29</v>
@@ -856,11 +929,17 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
@@ -870,6 +949,9 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
@@ -877,7 +959,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>35</v>
@@ -890,6 +972,9 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
@@ -897,7 +982,10 @@
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G14" s="1">
         <v>6</v>
@@ -907,6 +995,9 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
@@ -914,7 +1005,10 @@
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="1">
         <v>8</v>
@@ -925,6 +1019,9 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
@@ -932,66 +1029,54 @@
         <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BC0F9C-810D-FD4C-B797-65D56A8CDBF1}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,27 +1086,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1029,10 +1114,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1040,10 +1125,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1051,10 +1136,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,10 +1147,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,10 +1158,10 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1084,10 +1169,10 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1095,7 +1180,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1191,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1111,23 +1202,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1140,26 +1218,29 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,10 +1248,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1182,10 +1263,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1197,10 +1278,10 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B236827A-831D-C444-B12F-F138F0F72647}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1234,10 +1315,10 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1247,12 +1328,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79273C04-636F-7D40-8D3C-5C54B3B3ED18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4291C4F-87F9-AD48-8B18-7890128E8586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Scott 1990</t>
-  </si>
-  <si>
-    <t>Lm</t>
   </si>
   <si>
     <t>F1</t>
@@ -704,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,320 +747,309 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
+      <c r="G12" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="1">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1086,126 +1072,126 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1228,30 +1214,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1260,13 +1246,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1275,24 +1261,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1312,13 +1298,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1338,57 +1324,57 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4291C4F-87F9-AD48-8B18-7890128E8586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C4686-B589-FB46-912D-E27888BAC1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>femur M2</t>
+  </si>
+  <si>
+    <t>patellar surface</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1314,15 +1317,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -1330,50 +1333,56 @@
         <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>98</v>
       </c>
     </row>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C4686-B589-FB46-912D-E27888BAC1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B58153-33DE-7846-9FE2-A1B9277C1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14440" yWindow="1620" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -325,9 +325,6 @@
     <t>A trochlea on the distal end of a femur.</t>
   </si>
   <si>
-    <t>trochlea and ('part of' some femur)</t>
-  </si>
-  <si>
     <t>in oba</t>
   </si>
   <si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>patellar surface</t>
+  </si>
+  <si>
+    <t>on fovt-femur, made pull request</t>
+  </si>
+  <si>
+    <t>part of' some 'distal epiphysis of femur'</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1032,7 +1035,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -1320,7 +1323,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,17 +1376,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
       <c r="B2" t="s">
         <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
-        <v>98</v>
+      <c r="H2" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B58153-33DE-7846-9FE2-A1B9277C1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E675DB8-35B8-4A41-B334-E9484A2B4177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="1620" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>part of' some 'distal epiphysis of femur'</t>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>in pig, lagomorphs, ruminants</t>
+  </si>
+  <si>
+    <t>in some carnivores</t>
   </si>
 </sst>
 </file>
@@ -709,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,6 +754,9 @@
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E2" s="1" t="s">
@@ -787,6 +799,9 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -820,6 +835,9 @@
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1322,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E675DB8-35B8-4A41-B334-E9484A2B4177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61E7D6-3D84-704A-A0E5-8C5A3094C229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>in some carnivores</t>
+  </si>
+  <si>
+    <t>femur length</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,13 +791,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -812,6 +812,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61E7D6-3D84-704A-A0E5-8C5A3094C229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5617C670-7D47-6B4D-A93F-002565DC646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
   <si>
     <t>Femur Width Distal 2 (condyles)</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>femur length</t>
+  </si>
+  <si>
+    <t>femur Lm</t>
+  </si>
+  <si>
+    <t>femur SC</t>
   </si>
 </sst>
 </file>
@@ -377,12 +383,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -405,6 +417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,11 +1079,15 @@
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5617C670-7D47-6B4D-A93F-002565DC646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3DA55D-AC85-F345-ABCB-DDF8C3DD34F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,10 @@
     <t>femur length</t>
   </si>
   <si>
-    <t>femur Lm</t>
-  </si>
-  <si>
-    <t>femur SC</t>
+    <t>Femur Lm</t>
+  </si>
+  <si>
+    <t>emailed Amelia if same as distal breadth</t>
   </si>
 </sst>
 </file>
@@ -383,18 +383,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -409,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -417,7 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,6 +768,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,6 +839,9 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,15 +1078,7 @@
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="7" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3DA55D-AC85-F345-ABCB-DDF8C3DD34F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BADF64-5B60-1B48-8455-2273C5656D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>patellar surface</t>
   </si>
   <si>
-    <t>on fovt-femur, made pull request</t>
-  </si>
-  <si>
     <t>part of' some 'distal epiphysis of femur'</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>emailed Amelia if same as distal breadth</t>
+  </si>
+  <si>
+    <t>merged</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -764,12 +764,12 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -1418,7 +1418,7 @@
         <v>97</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BADF64-5B60-1B48-8455-2273C5656D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D84E429-1E01-E248-96A9-9F35DC648950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
-  <si>
-    <t>Femur Width Distal 2 (condyles)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -193,9 +190,6 @@
     <t>Femur greatest breadth proximal; Femur Bp, femur greatest breadth proximal, femur M5, proximal maximal breadth</t>
   </si>
   <si>
-    <t>Femur greatest breadth distal; Femur Bd, femur greatest breadth distal, femur M7, distal maximal breadth</t>
-  </si>
-  <si>
     <t>Dd</t>
   </si>
   <si>
@@ -352,10 +346,13 @@
     <t>Femur Lm</t>
   </si>
   <si>
-    <t>emailed Amelia if same as distal breadth</t>
-  </si>
-  <si>
     <t>merged</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>Femur greatest breadth distal; Femur Bd, femur greatest breadth distal, femur M7, distal maximal breadth; Femur Width Distal 2 (condyles)</t>
   </si>
 </sst>
 </file>
@@ -725,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D270C47C-E479-8A43-AE4F-71734E222B7D}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,351 +737,346 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="1">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G14" s="1">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="J17" s="3"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,126 +1099,126 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1249,30 +1241,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1281,13 +1273,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1296,24 +1288,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1333,13 +1325,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F6F331-16B8-1B45-AF0E-DBE384939AE3}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1359,66 +1351,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/terms/femurTerms.xlsx
+++ b/terms/femurTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D84E429-1E01-E248-96A9-9F35DC648950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE547323-3F22-554F-934F-9B258C7F4CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="11480" xr2:uid="{CAD560B1-029B-8141-9BD7-72661257BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -725,7 +732,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
